--- a/monitoring/tables/api_metadata.xlsx
+++ b/monitoring/tables/api_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamgodwin/Documents/sam/monitoring/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamgodwin/Documents/sam/monitoring/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093C9369-CEE4-5E4C-8A79-3AAD1BD5F47A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E711B27-0685-544B-BD3D-D6A1FD42D5D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="460" windowWidth="18120" windowHeight="15960" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="460" windowWidth="18120" windowHeight="15940" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eligibility" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="164">
   <si>
     <t>Data Source</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>http://openrosa.org/formdesigner/608C5060-9AA9-4ACE-9AE7-810D62417A7D</t>
+  </si>
+  <si>
+    <t>form.meta.username</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E26" sqref="E26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1177,7 +1180,7 @@
         <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.15">
@@ -1214,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E9EE1F-E539-3144-BEC7-DAD937A1E22E}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1738,7 +1741,7 @@
         <v>71</v>
       </c>
       <c r="F62" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.15">
@@ -1767,7 +1770,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E31" sqref="E31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2042,7 +2045,7 @@
         <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.15">
@@ -2071,7 +2074,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E24" sqref="E24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2290,7 +2293,7 @@
         <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.15">
@@ -2319,7 +2322,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E27" sqref="E27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2562,7 +2565,7 @@
         <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.15">
@@ -2591,7 +2594,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E35" sqref="E35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2898,7 +2901,7 @@
         <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.15">
@@ -2927,7 +2930,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E36" sqref="E36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3242,7 +3245,7 @@
         <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.15">
@@ -3270,8 +3273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACC33F0-76CD-6F4D-A470-9A4F8253E4D0}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3466,7 +3469,7 @@
         <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.15">
@@ -3494,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F761849B-673D-CE4D-AA43-214AEA3C1ABB}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3666,7 +3669,7 @@
         <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.15">
